--- a/Test/MC_Ssf/T1/Sensors_data_1000014.xlsx
+++ b/Test/MC_Ssf/T1/Sensors_data_1000014.xlsx
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8680100601002592</v>
+        <v>0.8644596265201844</v>
       </c>
       <c r="D2" t="n">
-        <v>0.009486532553404307</v>
+        <v>0.009741713393411228</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3901967607200729</v>
+        <v>0.3887041341238326</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1037521664010057</v>
+        <v>0.4771819768756763</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02981862577133367</v>
+        <v>0.01739442416887107</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9526054055043567</v>
+        <v>0.8103247430900263</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.213965751372158</v>
+        <v>0.5558644824074953</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02976212854745112</v>
+        <v>0.01681659341199431</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4511311589968656</v>
+        <v>0.2486152982090074</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.3617227373925176</v>
+        <v>0.8997870503863563</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03120475923142437</v>
+        <v>0.004899314369729756</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3893714397051016</v>
+        <v>-0.02896562543748743</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
@@ -575,13 +575,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8022610907423502</v>
+        <v>0.8873513037500604</v>
       </c>
       <c r="D6" t="n">
-        <v>0.006971880387691005</v>
+        <v>0.003971768829070404</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03995338118002456</v>
+        <v>-0.008381809788729858</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
